--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H2">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I2">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J2">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.17547212924119</v>
+        <v>2.249867</v>
       </c>
       <c r="N2">
-        <v>3.17547212924119</v>
+        <v>6.749601</v>
       </c>
       <c r="O2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P2">
-        <v>0.02463946613427846</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q2">
-        <v>486.0832450529409</v>
+        <v>393.2530192529283</v>
       </c>
       <c r="R2">
-        <v>486.0832450529409</v>
+        <v>3539.277173276355</v>
       </c>
       <c r="S2">
-        <v>0.0009590359537007761</v>
+        <v>0.0007155506227978628</v>
       </c>
       <c r="T2">
-        <v>0.0009590359537007761</v>
+        <v>0.0007155506227978627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H3">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I3">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J3">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.8690490316982</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N3">
-        <v>47.8690490316982</v>
+        <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P3">
-        <v>0.3714306926631688</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q3">
-        <v>7327.522253040966</v>
+        <v>565.6123149099227</v>
       </c>
       <c r="R3">
-        <v>7327.522253040966</v>
+        <v>5090.510834189305</v>
       </c>
       <c r="S3">
-        <v>0.01445710660412381</v>
+        <v>0.001029170087402761</v>
       </c>
       <c r="T3">
-        <v>0.01445710660412381</v>
+        <v>0.001029170087402761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H4">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I4">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J4">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.8329517492171</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N4">
-        <v>77.8329517492171</v>
+        <v>146.079468</v>
       </c>
       <c r="O4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P4">
-        <v>0.6039298412025528</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q4">
-        <v>11914.22636335626</v>
+        <v>8511.050037159459</v>
       </c>
       <c r="R4">
-        <v>11914.22636335626</v>
+        <v>76599.45033443513</v>
       </c>
       <c r="S4">
-        <v>0.02350661447247341</v>
+        <v>0.01548643457670764</v>
       </c>
       <c r="T4">
-        <v>0.02350661447247341</v>
+        <v>0.01548643457670764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3719.1719254945</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H5">
-        <v>3719.1719254945</v>
+        <v>524.368355</v>
       </c>
       <c r="I5">
-        <v>0.9456871849618361</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J5">
-        <v>0.9456871849618361</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.17547212924119</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N5">
-        <v>3.17547212924119</v>
+        <v>253.384305</v>
       </c>
       <c r="O5">
-        <v>0.02463946613427846</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P5">
-        <v>0.02463946613427846</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q5">
-        <v>11810.12679326408</v>
+        <v>14762.96791062981</v>
       </c>
       <c r="R5">
-        <v>11810.12679326408</v>
+        <v>132866.7111956683</v>
       </c>
       <c r="S5">
-        <v>0.02330122736748829</v>
+        <v>0.02686222448555901</v>
       </c>
       <c r="T5">
-        <v>0.02330122736748829</v>
+        <v>0.02686222448555901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3719.1719254945</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H6">
-        <v>3719.1719254945</v>
+        <v>524.368355</v>
       </c>
       <c r="I6">
-        <v>0.9456871849618361</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J6">
-        <v>0.9456871849618361</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>47.8690490316982</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N6">
-        <v>47.8690490316982</v>
+        <v>0.354985</v>
       </c>
       <c r="O6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P6">
-        <v>0.3714306926631688</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q6">
-        <v>178033.2232588116</v>
+        <v>20.68254449996389</v>
       </c>
       <c r="R6">
-        <v>178033.2232588116</v>
+        <v>186.142900499675</v>
       </c>
       <c r="S6">
-        <v>0.351257246153057</v>
+        <v>3.763329681767845E-05</v>
       </c>
       <c r="T6">
-        <v>0.351257246153057</v>
+        <v>3.763329681767844E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3719.1719254945</v>
+        <v>3721.989909</v>
       </c>
       <c r="H7">
-        <v>3719.1719254945</v>
+        <v>11165.969727</v>
       </c>
       <c r="I7">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J7">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>77.8329517492171</v>
+        <v>2.249867</v>
       </c>
       <c r="N7">
-        <v>77.8329517492171</v>
+        <v>6.749601</v>
       </c>
       <c r="O7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P7">
-        <v>0.6039298412025528</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q7">
-        <v>289474.1290240563</v>
+        <v>8373.982270592103</v>
       </c>
       <c r="R7">
-        <v>289474.1290240563</v>
+        <v>75365.84043532892</v>
       </c>
       <c r="S7">
-        <v>0.5711287114412908</v>
+        <v>0.01523703045027752</v>
       </c>
       <c r="T7">
-        <v>0.5711287114412908</v>
+        <v>0.01523703045027752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8358179266180989</v>
+        <v>3721.989909</v>
       </c>
       <c r="H8">
-        <v>0.8358179266180989</v>
+        <v>11165.969727</v>
       </c>
       <c r="I8">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J8">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.17547212924119</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N8">
-        <v>3.17547212924119</v>
+        <v>9.707891</v>
       </c>
       <c r="O8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="P8">
-        <v>0.02463946613427846</v>
+        <v>0.02332078998021146</v>
       </c>
       <c r="Q8">
-        <v>2.654116531095931</v>
+        <v>12044.22411322397</v>
       </c>
       <c r="R8">
-        <v>2.654116531095931</v>
+        <v>108398.0170190158</v>
       </c>
       <c r="S8">
-        <v>5.236537577746287E-06</v>
+        <v>0.02191528518129813</v>
       </c>
       <c r="T8">
-        <v>5.236537577746287E-06</v>
+        <v>0.02191528518129813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8358179266180989</v>
+        <v>3721.989909</v>
       </c>
       <c r="H9">
-        <v>0.8358179266180989</v>
+        <v>11165.969727</v>
       </c>
       <c r="I9">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J9">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.8690490316982</v>
+        <v>48.69315599999999</v>
       </c>
       <c r="N9">
-        <v>47.8690490316982</v>
+        <v>146.079468</v>
       </c>
       <c r="O9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041114</v>
       </c>
       <c r="P9">
-        <v>0.3714306926631688</v>
+        <v>0.3509195348041115</v>
       </c>
       <c r="Q9">
-        <v>40.0098093108541</v>
+        <v>181235.4352693628</v>
       </c>
       <c r="R9">
-        <v>40.0098093108541</v>
+        <v>1631118.917424265</v>
       </c>
       <c r="S9">
-        <v>7.893883613627139E-05</v>
+        <v>0.3297702045019165</v>
       </c>
       <c r="T9">
-        <v>7.893883613627139E-05</v>
+        <v>0.3297702045019165</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8358179266180989</v>
+        <v>3721.989909</v>
       </c>
       <c r="H10">
-        <v>0.8358179266180989</v>
+        <v>11165.969727</v>
       </c>
       <c r="I10">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J10">
-        <v>0.0002125264220096559</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>77.8329517492171</v>
+        <v>84.46143499999999</v>
       </c>
       <c r="N10">
-        <v>77.8329517492171</v>
+        <v>253.384305</v>
       </c>
       <c r="O10">
-        <v>0.6039298412025528</v>
+        <v>0.6086926770383849</v>
       </c>
       <c r="P10">
-        <v>0.6039298412025528</v>
+        <v>0.608692677038385</v>
       </c>
       <c r="Q10">
-        <v>65.05417635359717</v>
+        <v>314364.6087696594</v>
       </c>
       <c r="R10">
-        <v>65.05417635359717</v>
+        <v>2829281.478926934</v>
       </c>
       <c r="S10">
-        <v>0.0001283510482956382</v>
+        <v>0.5720077928913732</v>
       </c>
       <c r="T10">
-        <v>0.0001283510482956382</v>
+        <v>0.5720077928913733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.689768741765</v>
+        <v>3721.989909</v>
       </c>
       <c r="H11">
-        <v>59.689768741765</v>
+        <v>11165.969727</v>
       </c>
       <c r="I11">
-        <v>0.01517753158585629</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J11">
-        <v>0.01517753158585629</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.17547212924119</v>
+        <v>0.1183283333333333</v>
       </c>
       <c r="N11">
-        <v>3.17547212924119</v>
+        <v>0.354985</v>
       </c>
       <c r="O11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675126</v>
       </c>
       <c r="P11">
-        <v>0.02463946613427846</v>
+        <v>0.0008527630389675127</v>
       </c>
       <c r="Q11">
-        <v>189.5431970403267</v>
+        <v>440.416862615455</v>
       </c>
       <c r="R11">
-        <v>189.5431970403267</v>
+        <v>3963.751763539095</v>
       </c>
       <c r="S11">
-        <v>0.0003739662755116477</v>
+        <v>0.0008013684445038698</v>
       </c>
       <c r="T11">
-        <v>0.0003739662755116477</v>
+        <v>0.0008013684445038698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.689768741765</v>
+        <v>0.837161</v>
       </c>
       <c r="H12">
-        <v>59.689768741765</v>
+        <v>2.511483</v>
       </c>
       <c r="I12">
-        <v>0.01517753158585629</v>
+        <v>0.0002113672345774699</v>
       </c>
       <c r="J12">
-        <v>0.01517753158585629</v>
+        <v>0.0002113672345774698</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>47.8690490316982</v>
+        <v>2.249867</v>
       </c>
       <c r="N12">
-        <v>47.8690490316982</v>
+        <v>6.749601</v>
       </c>
       <c r="O12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="P12">
-        <v>0.3714306926631688</v>
+        <v>0.01621423513832461</v>
       </c>
       <c r="Q12">
-        <v>2857.292466590275</v>
+        <v>1.883500907587</v>
       </c>
       <c r="R12">
-        <v>2857.292466590275</v>
+        <v>16.951508168283</v>
       </c>
       <c r="S12">
-        <v>0.005637401069851726</v>
+        <v>3.427158041976513E-06</v>
       </c>
       <c r="T12">
-        <v>0.005637401069851726</v>
+        <v>3.427158041976512E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.837161</v>
+      </c>
+      <c r="H13">
+        <v>2.511483</v>
+      </c>
+      <c r="I13">
+        <v>0.0002113672345774699</v>
+      </c>
+      <c r="J13">
+        <v>0.0002113672345774698</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.707891</v>
+      </c>
+      <c r="O13">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P13">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q13">
+        <v>2.709022579150334</v>
+      </c>
+      <c r="R13">
+        <v>24.381203212353</v>
+      </c>
+      <c r="S13">
+        <v>4.929250886279265E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.929250886279264E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.837161</v>
+      </c>
+      <c r="H14">
+        <v>2.511483</v>
+      </c>
+      <c r="I14">
+        <v>0.0002113672345774699</v>
+      </c>
+      <c r="J14">
+        <v>0.0002113672345774698</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N14">
+        <v>146.079468</v>
+      </c>
+      <c r="O14">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P14">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q14">
+        <v>40.764011170116</v>
+      </c>
+      <c r="R14">
+        <v>366.876100531044</v>
+      </c>
+      <c r="S14">
+        <v>7.417289163075722E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.417289163075722E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.837161</v>
+      </c>
+      <c r="H15">
+        <v>2.511483</v>
+      </c>
+      <c r="I15">
+        <v>0.0002113672345774699</v>
+      </c>
+      <c r="J15">
+        <v>0.0002113672345774698</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N15">
+        <v>253.384305</v>
+      </c>
+      <c r="O15">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P15">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q15">
+        <v>70.707819386035</v>
+      </c>
+      <c r="R15">
+        <v>636.370374474315</v>
+      </c>
+      <c r="S15">
+        <v>0.0001286576878531604</v>
+      </c>
+      <c r="T15">
+        <v>0.0001286576878531604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>59.689768741765</v>
-      </c>
-      <c r="H13">
-        <v>59.689768741765</v>
-      </c>
-      <c r="I13">
-        <v>0.01517753158585629</v>
-      </c>
-      <c r="J13">
-        <v>0.01517753158585629</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="N13">
-        <v>77.8329517492171</v>
-      </c>
-      <c r="O13">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="P13">
-        <v>0.6039298412025528</v>
-      </c>
-      <c r="Q13">
-        <v>4645.830890399722</v>
-      </c>
-      <c r="R13">
-        <v>4645.830890399722</v>
-      </c>
-      <c r="S13">
-        <v>0.00916616424049292</v>
-      </c>
-      <c r="T13">
-        <v>0.00916616424049292</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.837161</v>
+      </c>
+      <c r="H16">
+        <v>2.511483</v>
+      </c>
+      <c r="I16">
+        <v>0.0002113672345774699</v>
+      </c>
+      <c r="J16">
+        <v>0.0002113672345774698</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.354985</v>
+      </c>
+      <c r="O16">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P16">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q16">
+        <v>0.09905986586166667</v>
+      </c>
+      <c r="R16">
+        <v>0.891538792755</v>
+      </c>
+      <c r="S16">
+        <v>1.802461652964423E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.802461652964423E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.334605</v>
+      </c>
+      <c r="H17">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J17">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.249867</v>
+      </c>
+      <c r="N17">
+        <v>6.749601</v>
+      </c>
+      <c r="O17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P17">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q17">
+        <v>3.002683747535</v>
+      </c>
+      <c r="R17">
+        <v>27.024153727815</v>
+      </c>
+      <c r="S17">
+        <v>5.463587360868534E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.463587360868534E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.334605</v>
+      </c>
+      <c r="H18">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J18">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N18">
+        <v>9.707891</v>
+      </c>
+      <c r="O18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P18">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q18">
+        <v>4.318733289351666</v>
+      </c>
+      <c r="R18">
+        <v>38.86859960416499</v>
+      </c>
+      <c r="S18">
+        <v>7.858229037285225E-06</v>
+      </c>
+      <c r="T18">
+        <v>7.858229037285225E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.334605</v>
+      </c>
+      <c r="H19">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J19">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N19">
+        <v>146.079468</v>
+      </c>
+      <c r="O19">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P19">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q19">
+        <v>64.98612946337998</v>
+      </c>
+      <c r="R19">
+        <v>584.8751651704199</v>
+      </c>
+      <c r="S19">
+        <v>0.0001182466837739297</v>
+      </c>
+      <c r="T19">
+        <v>0.0001182466837739297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.334605</v>
+      </c>
+      <c r="H20">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J20">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N20">
+        <v>253.384305</v>
+      </c>
+      <c r="O20">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P20">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q20">
+        <v>112.722653458175</v>
+      </c>
+      <c r="R20">
+        <v>1014.503881123575</v>
+      </c>
+      <c r="S20">
+        <v>0.0002051065368516535</v>
+      </c>
+      <c r="T20">
+        <v>0.0002051065368516535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.334605</v>
+      </c>
+      <c r="H21">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J21">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.354985</v>
+      </c>
+      <c r="O21">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P21">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q21">
+        <v>0.1579215853083333</v>
+      </c>
+      <c r="R21">
+        <v>1.421294267775</v>
+      </c>
+      <c r="S21">
+        <v>2.873490683816594E-07</v>
+      </c>
+      <c r="T21">
+        <v>2.873490683816594E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H22">
+        <v>185.229503</v>
+      </c>
+      <c r="I22">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J22">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>2.249867</v>
+      </c>
+      <c r="N22">
+        <v>6.749601</v>
+      </c>
+      <c r="O22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="P22">
+        <v>0.01621423513832461</v>
+      </c>
+      <c r="Q22">
+        <v>138.9139154087003</v>
+      </c>
+      <c r="R22">
+        <v>1250.225238678303</v>
+      </c>
+      <c r="S22">
+        <v>0.0002527633198463867</v>
+      </c>
+      <c r="T22">
+        <v>0.0002527633198463866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H23">
+        <v>185.229503</v>
+      </c>
+      <c r="I23">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J23">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.235963666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.707891</v>
+      </c>
+      <c r="O23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="P23">
+        <v>0.02332078998021146</v>
+      </c>
+      <c r="Q23">
+        <v>199.7986472342415</v>
+      </c>
+      <c r="R23">
+        <v>1798.187825108173</v>
+      </c>
+      <c r="S23">
+        <v>0.0003635472315870017</v>
+      </c>
+      <c r="T23">
+        <v>0.0003635472315870017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H24">
+        <v>185.229503</v>
+      </c>
+      <c r="I24">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J24">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>48.69315599999999</v>
+      </c>
+      <c r="N24">
+        <v>146.079468</v>
+      </c>
+      <c r="O24">
+        <v>0.3509195348041114</v>
+      </c>
+      <c r="P24">
+        <v>0.3509195348041115</v>
+      </c>
+      <c r="Q24">
+        <v>3006.469695127156</v>
+      </c>
+      <c r="R24">
+        <v>27058.2272561444</v>
+      </c>
+      <c r="S24">
+        <v>0.005470476150082649</v>
+      </c>
+      <c r="T24">
+        <v>0.005470476150082649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H25">
+        <v>185.229503</v>
+      </c>
+      <c r="I25">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J25">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.46143499999999</v>
+      </c>
+      <c r="N25">
+        <v>253.384305</v>
+      </c>
+      <c r="O25">
+        <v>0.6086926770383849</v>
+      </c>
+      <c r="P25">
+        <v>0.608692677038385</v>
+      </c>
+      <c r="Q25">
+        <v>5214.916542572269</v>
+      </c>
+      <c r="R25">
+        <v>46934.24888315042</v>
+      </c>
+      <c r="S25">
+        <v>0.009488895436747946</v>
+      </c>
+      <c r="T25">
+        <v>0.009488895436747946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H26">
+        <v>185.229503</v>
+      </c>
+      <c r="I26">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J26">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1183283333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.354985</v>
+      </c>
+      <c r="O26">
+        <v>0.0008527630389675126</v>
+      </c>
+      <c r="P26">
+        <v>0.0008527630389675127</v>
+      </c>
+      <c r="Q26">
+        <v>7.305966124717222</v>
+      </c>
+      <c r="R26">
+        <v>65.75369512245501</v>
+      </c>
+      <c r="S26">
+        <v>1.329370241228623E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.329370241228623E-05</v>
       </c>
     </row>
   </sheetData>
